--- a/old_database/crypto/fastqFiles/fastq_3357.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_3357.xlsx
@@ -40,7 +40,7 @@
     <t>12.10.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3357</t>
   </si>
   <si>
     <t>sequence/run_3357_samples/3357-Brent_crypto21-1_GTAC_1_SIC_Index2_06_TGAGGTTATC_GACCTTGT_S17_R1_001.fastq.gz</t>
